--- a/Project/Data:Analysis/Data.xlsx
+++ b/Project/Data:Analysis/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jh121/Library/Mobile Documents/com~apple~CloudDocs/Project/Data:Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEEF23E-77DE-D244-BA3B-47CE5E4E3380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260FBE9A-8C06-7E4D-B9C5-B9E85EDD3485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30860" windowHeight="16380" xr2:uid="{E2427F83-B15F-C447-AD0B-5A75AE5279B3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30860" windowHeight="16380" activeTab="5" xr2:uid="{E2427F83-B15F-C447-AD0B-5A75AE5279B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Base 1" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="69">
   <si>
     <t>Molecule</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>ClosedR</t>
+  </si>
+  <si>
+    <t>ClosedRing</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B869D4D7-EA14-8F4B-A083-6A883E8B3107}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3247,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE5031B-F0CE-104F-8605-A2754B2063CA}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3300,7 +3303,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
@@ -3345,7 +3350,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>67</v>
       </c>

--- a/Project/Data:Analysis/Data.xlsx
+++ b/Project/Data:Analysis/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jh121/Library/Mobile Documents/com~apple~CloudDocs/Project/Data:Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260FBE9A-8C06-7E4D-B9C5-B9E85EDD3485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C982C922-F605-2244-B72F-C7E43D2F49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30860" windowHeight="16380" activeTab="5" xr2:uid="{E2427F83-B15F-C447-AD0B-5A75AE5279B3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30860" windowHeight="16380" xr2:uid="{E2427F83-B15F-C447-AD0B-5A75AE5279B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Base 1" sheetId="5" r:id="rId1"/>
@@ -19,10 +19,7 @@
     <sheet name="Base 4" sheetId="3" r:id="rId4"/>
     <sheet name="Katherine" sheetId="4" r:id="rId5"/>
     <sheet name="ClosedRing" sheetId="14" r:id="rId6"/>
-    <sheet name="Blatter" sheetId="1" r:id="rId7"/>
-    <sheet name="Nitronyl Nitroxide" sheetId="11" r:id="rId8"/>
-    <sheet name="Verdazyl" sheetId="12" r:id="rId9"/>
-    <sheet name="Gaussian" sheetId="13" r:id="rId10"/>
+    <sheet name="Gaussian" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
   <si>
     <t>Molecule</t>
   </si>
@@ -113,78 +110,12 @@
     <t>Katherine</t>
   </si>
   <si>
-    <t>Ph</t>
-  </si>
-  <si>
-    <t>CF3</t>
-  </si>
-  <si>
     <t>Scaled e- J (eV)</t>
   </si>
   <si>
     <t>Scaled h+ J (eV)</t>
   </si>
   <si>
-    <t>Nitro-4Helicene</t>
-  </si>
-  <si>
-    <t>Nitro-6Helicene</t>
-  </si>
-  <si>
-    <t>Verdazyl-4Helicene</t>
-  </si>
-  <si>
-    <t>Verdazyl-6Helicene</t>
-  </si>
-  <si>
-    <t>Verdazyl-Benzothiophene-4Helicene</t>
-  </si>
-  <si>
-    <t>Verdazyl1</t>
-  </si>
-  <si>
-    <t>Verdazyl2</t>
-  </si>
-  <si>
-    <t>Verdazyl3</t>
-  </si>
-  <si>
-    <t>Verdazyl4</t>
-  </si>
-  <si>
-    <t>Verdazyl5</t>
-  </si>
-  <si>
-    <t>Nitro1</t>
-  </si>
-  <si>
-    <t>Nitro2</t>
-  </si>
-  <si>
-    <t>Nitro3</t>
-  </si>
-  <si>
-    <t>Nitro4</t>
-  </si>
-  <si>
-    <t>Blatter Ph</t>
-  </si>
-  <si>
-    <t>Blatter CF3</t>
-  </si>
-  <si>
-    <t>Verdazyl-6Helicene(NSEM)-Verdazyl</t>
-  </si>
-  <si>
-    <t>Verdazyl-6Helicene(NSEM)-Br</t>
-  </si>
-  <si>
-    <t>Nitro-6Helicene(NSEM)-Nitro</t>
-  </si>
-  <si>
-    <t>Nitro-6Helicene(NSEM)-Br</t>
-  </si>
-  <si>
     <t>Katherine1</t>
   </si>
   <si>
@@ -224,27 +155,9 @@
     <t xml:space="preserve"> Base3SO2Me</t>
   </si>
   <si>
-    <t>Base4tBu</t>
-  </si>
-  <si>
-    <t>Base4SO2Me</t>
-  </si>
-  <si>
-    <t>Base4CO2Me</t>
-  </si>
-  <si>
-    <t>Base4SF5</t>
-  </si>
-  <si>
     <t>Base3SF5</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Leave for now</t>
-  </si>
-  <si>
     <t>ClosedN</t>
   </si>
   <si>
@@ -252,13 +165,37 @@
   </si>
   <si>
     <t>ClosedRing</t>
+  </si>
+  <si>
+    <t>*no dimer gfnff (convergence issues)</t>
+  </si>
+  <si>
+    <t>Projective</t>
+  </si>
+  <si>
+    <t>Counterpoise</t>
+  </si>
+  <si>
+    <t>LUMO-LUMO coupling:  [ 6.59332494e-05 -1.30988712e-03]</t>
+  </si>
+  <si>
+    <t>HOMO-HOMO coupling:  [-1.30988712e-03 -1.62209422e-05]</t>
+  </si>
+  <si>
+    <t>*stack distacne = 8, no dimer spGFN-2 (bond formation), poor method, need to look at restricting distances</t>
+  </si>
+  <si>
+    <t>*GFN2 for DIPRO instead of spGFN2 (bad scc convergence)</t>
+  </si>
+  <si>
+    <t>*no .cub - no unpaired e-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,25 +252,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -349,10 +304,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,8 +314,25 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -414,9 +385,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Gaussian</a:t>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>Projective Method</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
               <a:t> (blue) vs. DIPRO (orange)</a:t>
@@ -501,10 +477,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Gaussian!$G$2:$G$5</c:f>
+              <c:f>Gaussian!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.879105E-2</c:v>
                 </c:pt>
@@ -517,15 +493,27 @@
                 <c:pt idx="3">
                   <c:v>1.3745180000000001E-2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.935459E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4884880000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6305403110000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.879101847E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Gaussian!$H$2:$H$5</c:f>
+              <c:f>Gaussian!$H$2:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.879105E-2</c:v>
                 </c:pt>
@@ -537,6 +525,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.3745180000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.935459E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4884880000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>6.6305403110000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>6.879101847E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,10 +589,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Gaussian!$G$2:$G$5</c:f>
+              <c:f>Gaussian!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.879105E-2</c:v>
                 </c:pt>
@@ -605,15 +605,27 @@
                 <c:pt idx="3">
                   <c:v>1.3745180000000001E-2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.935459E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4884880000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6305403110000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.879101847E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Gaussian!$I$2:$I$5</c:f>
+              <c:f>Gaussian!$I$2:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
@@ -621,10 +633,22 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,16 +1408,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1718,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B869D4D7-EA14-8F4B-A083-6A883E8B3107}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1733,497 +1757,246 @@
     <col min="11" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
-        <v>3.10775815618092E-2</v>
-      </c>
-      <c r="D2" s="9">
-        <v>3.5520188496645101E-2</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="26">
+        <v>3.0406439483314399E-2</v>
+      </c>
+      <c r="D2" s="26">
+        <v>3.6414575730886703E-2</v>
+      </c>
+      <c r="E2" s="26">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F2" s="9">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="F2" s="26">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G2" s="26">
         <f>E2*1.921</f>
         <v>0.140233</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="26">
         <f>F2*1.921</f>
-        <v>0.12294400000000001</v>
-      </c>
-      <c r="I2" s="9">
+        <v>0.12102300000000001</v>
+      </c>
+      <c r="I2" s="26">
         <f>(((G2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C2+0.3)*0.000086173*300)))) * EXP(-(C2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>1180045480372.491</v>
-      </c>
-      <c r="J2" s="9">
+        <v>1188934871196.1323</v>
+      </c>
+      <c r="J2" s="26">
         <f>(((H2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D2+0.3)*0.000086173*300)))) * EXP(-(D2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>863098440989.50317</v>
-      </c>
-      <c r="K2" s="10">
+        <v>828032025272.02087</v>
+      </c>
+      <c r="K2" s="27">
         <v>4</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="27">
         <f t="shared" ref="L2:L3" si="0">(((1.6E-19)*(K2*0.0000001)^2)*I2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>3.6514132602227605</v>
-      </c>
-      <c r="M2" s="10">
+        <v>3.6789196911770148</v>
+      </c>
+      <c r="M2" s="27">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*J2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>2.6706844310033353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+        <v>2.5621784645223813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
-        <v>7.2946482989615799E-2</v>
-      </c>
-      <c r="D3" s="9">
-        <v>7.5009876539441703E-2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="C3" s="26">
+        <v>7.1628193899819101E-2</v>
+      </c>
+      <c r="D3" s="26">
+        <v>7.5301745253255503E-2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="26">
         <f t="shared" ref="G3:G5" si="1">E3*1.921</f>
-        <v>2.3052E-2</v>
-      </c>
-      <c r="H3" s="9">
+        <v>0.149838</v>
+      </c>
+      <c r="H3" s="26">
         <f t="shared" ref="H3:H5" si="2">F3*1.921</f>
-        <v>0.14791699999999999</v>
-      </c>
-      <c r="I3" s="9">
+        <v>3.8420000000000003E-2</v>
+      </c>
+      <c r="I3" s="26">
         <f t="shared" ref="I3:I5" si="3">(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>20040789266.032078</v>
-      </c>
-      <c r="J3" s="9">
+        <v>859106603274.73645</v>
+      </c>
+      <c r="J3" s="26">
         <f t="shared" ref="J3:J5" si="4">(((H3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D3+0.3)*0.000086173*300)))) * EXP(-(D3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>806621474103.41614</v>
-      </c>
-      <c r="K3" s="10">
+        <v>54244234182.397392</v>
+      </c>
+      <c r="K3" s="27">
         <v>4</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="27">
         <f t="shared" si="0"/>
-        <v>6.2012189265976847E-2</v>
-      </c>
-      <c r="M3" s="10">
+        <v>2.6583324925341874</v>
+      </c>
+      <c r="M3" s="27">
         <f t="shared" ref="M3:M5" si="5">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>2.4959278227072508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+        <v>0.16784786627182602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="C4" s="21">
+        <v>0.18348400000000001</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.16788500000000001</v>
+      </c>
+      <c r="E4" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.129</v>
+      </c>
+      <c r="G4" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+        <v>7.6840000000000007E-3</v>
+      </c>
+      <c r="H4" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
+        <v>0.247809</v>
+      </c>
+      <c r="I4" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+        <v>671530257.43588841</v>
+      </c>
+      <c r="J4" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
+        <v>825580991728.92261</v>
+      </c>
+      <c r="K4" s="23">
         <v>4</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="23">
         <f t="shared" ref="L4" si="6">(((1.6E-19)*(K4*0.0000001)^2)*I4)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
+        <v>2.0779152392229848E-3</v>
+      </c>
+      <c r="M4" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+        <v>2.5545942344826251</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9">
-        <v>0.200434790709975</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.213990487887223</v>
-      </c>
-      <c r="E5" s="9">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="C5" s="26">
+        <v>0.18207300000000001</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.232545</v>
+      </c>
+      <c r="E5" s="26">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F5" s="26">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="26">
         <f t="shared" si="1"/>
-        <v>1.3447000000000001E-2</v>
-      </c>
-      <c r="H5" s="9">
+        <v>0.13831199999999999</v>
+      </c>
+      <c r="H5" s="26">
         <f t="shared" si="2"/>
         <v>3.2657000000000005E-2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="26">
         <f t="shared" si="3"/>
-        <v>1715807360.1472597</v>
-      </c>
-      <c r="J5" s="9">
+        <v>220887534173.9054</v>
+      </c>
+      <c r="J5" s="26">
         <f t="shared" si="4"/>
-        <v>8758603238.1705799</v>
-      </c>
-      <c r="K5" s="10">
+        <v>7191316724.0863972</v>
+      </c>
+      <c r="K5" s="27">
         <v>4</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="27">
         <f t="shared" ref="L5" si="7">(((1.6E-19)*(K5*0.0000001)^2)*I5)/(2*300*0.00008618*1.6E-19)</f>
-        <v>5.309220577542381E-3</v>
-      </c>
-      <c r="M5" s="10">
+        <v>0.68349202188877645</v>
+      </c>
+      <c r="M5" s="27">
         <f t="shared" si="5"/>
-        <v>2.710173509142284E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.2252082382877372E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388CD6A6-D69D-884A-994F-2EEE7643A3C8}">
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2">
-        <v>7.60847E-3</v>
-      </c>
-      <c r="F2">
-        <v>2.9973630000000001E-2</v>
-      </c>
-      <c r="G2">
-        <v>1.879105E-2</v>
-      </c>
-      <c r="H2">
-        <f>(E2+F2)/2</f>
-        <v>1.879105E-2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>8.4149800000000007E-3</v>
-      </c>
-      <c r="F3">
-        <v>7.60847E-3</v>
-      </c>
-      <c r="G3">
-        <v>8.0117250000000008E-3</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H5" si="0">(E3+F3)/2</f>
-        <v>8.0117250000000008E-3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>1.0244090000000001E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.5772659999999999E-2</v>
-      </c>
-      <c r="G4">
-        <v>1.8008375E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1.8008375E-2</v>
-      </c>
-      <c r="I4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5">
-        <v>1.7246270000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>1.0244090000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.3745180000000001E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1.3745180000000001E-2</v>
-      </c>
-      <c r="I5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6">
-        <v>3.2782039999999998E-2</v>
-      </c>
-      <c r="F6">
-        <v>2.5927140000000001E-2</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7">
-        <v>5.6987719999999999E-2</v>
-      </c>
-      <c r="F7">
-        <v>3.2782039999999998E-2</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8">
-        <v>0.03</v>
-      </c>
-      <c r="J8">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I9">
-        <v>0.03</v>
-      </c>
-      <c r="J9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J18" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I19" s="11">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J19">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20">
-        <v>1.2E-2</v>
-      </c>
-      <c r="J20">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I21">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J21">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I23">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I24">
-        <v>1.9E-2</v>
-      </c>
-      <c r="J24">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25">
-        <v>1.9E-2</v>
-      </c>
-      <c r="J25">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H26" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2232,7 +2005,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2244,230 +2017,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="18">
         <v>2.8947687677049999E-2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="18">
         <v>3.2142512926090001E-2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="18">
         <v>1.2E-2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="18">
         <f>E2*1.921</f>
         <v>5.7629999999999999E-3</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="18">
         <f>F2*1.921</f>
         <v>2.3052E-2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="18">
         <f>(((G2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C2+0.3)*0.000086173*300)))) * EXP(-(C2+0.3) / (4 * 0.000086173 * 300)))</f>
         <v>2040996210.2806382</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="18">
         <f>(((H2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D2+0.3)*0.000086173*300)))) * EXP(-(D2+0.3) / (4 * 0.000086173 * 300)))</f>
         <v>31509799452.405128</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="19">
         <v>4</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="19">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*I2)/(2*300*0.00008618*1.6E-19)</f>
         <v>6.3154520315019331E-3</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="19">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*J2)/(2*300*0.00008618*1.6E-19)</f>
         <v>9.7500733201532033E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="18">
         <v>0.107872720476242</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="18">
         <v>0.191971293216014</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="18">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="18">
         <f t="shared" ref="G3:G5" si="0">E3*1.921</f>
         <v>3.4577999999999998E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="18">
         <f t="shared" ref="H3:H5" si="1">F3*1.921</f>
         <v>4.8025000000000005E-2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="18">
         <f t="shared" ref="I3:I5" si="2">(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
         <v>30759123793.142956</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="18">
         <f t="shared" ref="J3:J5" si="3">(((H3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D3+0.3)*0.000086173*300)))) * EXP(-(D3+0.3) / (4 * 0.000086173 * 300)))</f>
         <v>23955298796.741329</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="19">
         <v>4</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="19">
         <f t="shared" ref="L3" si="4">(((1.6E-19)*(K3*0.0000001)^2)*I3)/(2*300*0.00008618*1.6E-19)</f>
         <v>9.5177918444010037E-2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="19">
         <f t="shared" ref="M3:M5" si="5">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
         <v>7.4124851231504044E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="18">
         <v>0.173042968489764</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="18">
         <v>0.223210219467631</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="18">
         <v>2.3E-2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="18">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="18">
         <f t="shared" si="0"/>
         <v>4.4183E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="18">
         <f t="shared" si="1"/>
         <v>5.5709000000000002E-2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="18">
         <f t="shared" si="2"/>
         <v>24830908194.038399</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="18">
         <f t="shared" si="3"/>
         <v>23107402030.29818</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="19">
         <v>4</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="19">
         <f t="shared" ref="L4" si="6">(((1.6E-19)*(K4*0.0000001)^2)*I4)/(2*300*0.00008618*1.6E-19)</f>
         <v>7.6834248299028046E-2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="19">
         <f t="shared" si="5"/>
         <v>7.150120532311649E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="18">
         <v>0.18001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="18">
         <v>0.187114</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="18">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="18">
         <v>0.01</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>1.7288999999999999E-2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
         <v>1.9210000000000001E-2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="18">
         <f t="shared" si="2"/>
         <v>3528472579.0538778</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="18">
         <f t="shared" si="3"/>
         <v>4037160008.4132252</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="19">
         <v>4</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="19">
         <f t="shared" ref="L5" si="7">(((1.6E-19)*(K5*0.0000001)^2)*I5)/(2*300*0.00008618*1.6E-19)</f>
         <v>1.0918148306811717E-2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="19">
         <f t="shared" si="5"/>
         <v>1.2492179185930916E-2</v>
       </c>
@@ -2483,7 +2256,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2503,232 +2276,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
-        <v>7.6189000000000007E-2</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.19669300000000001</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="14">
+        <v>8.0749515561685095E-2</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.19936570830266601</v>
+      </c>
+      <c r="E2" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="14">
         <v>2E-3</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="14">
         <f t="shared" ref="G2:H5" si="0">E2*1.921</f>
         <v>1.3447000000000001E-2</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="14">
         <f t="shared" si="0"/>
         <v>3.8420000000000004E-3</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="14">
         <f>(((G2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C2+0.3)*0.000086173*300)))) * EXP(-(C2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>6580374283.349144</v>
-      </c>
-      <c r="J2" s="9">
+        <v>6258648576.7833862</v>
+      </c>
+      <c r="J2" s="14">
         <f>(((H2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D2+0.3)*0.000086173*300)))) * EXP(-(D2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>145772987.81881353</v>
-      </c>
-      <c r="K2" s="10">
+        <v>141672902.97528294</v>
+      </c>
+      <c r="K2" s="15">
         <v>4</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="15">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*I2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>2.036164394940556E-2</v>
-      </c>
-      <c r="M2" s="10">
+        <v>1.9366128496274105E-2</v>
+      </c>
+      <c r="M2" s="15">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*J2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>4.5106517465402177E-4</v>
+        <v>4.3837828722915719E-4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
-        <v>0.13483606679593299</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.13449880386069399</v>
-      </c>
-      <c r="E3" s="9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="C3" s="14">
+        <v>0.13774232897008101</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.13889493440377901</v>
+      </c>
+      <c r="E3" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="9">
-        <f t="shared" si="0"/>
-        <v>1.5368000000000001E-2</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="F3" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="14">
         <f t="shared" si="0"/>
         <v>7.6840000000000007E-3</v>
       </c>
-      <c r="I3" s="9">
-        <f t="shared" ref="I3:I5" si="1">(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>4533848109.7306576</v>
-      </c>
-      <c r="J3" s="9">
-        <f t="shared" ref="J3:J5" si="2">(((H3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D3+0.3)*0.000086173*300)))) * EXP(-(D3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>1137606093.017247</v>
-      </c>
-      <c r="K3" s="10">
-        <v>4</v>
-      </c>
-      <c r="L3" s="10">
-        <f>(((1.6E-19)*(K3*0.0000001)^2)*I3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>1.4029080559234642E-2</v>
-      </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M5" si="3">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>3.5200931167857865E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.325033645692614</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.33230706099063501</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G4" s="9">
-        <f t="shared" si="0"/>
-        <v>7.1077000000000001E-2</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3447000000000001E-2</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" si="1"/>
-        <v>12855937859.564749</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" si="2"/>
-        <v>426419406.14715356</v>
-      </c>
-      <c r="K4" s="10">
-        <v>4</v>
-      </c>
-      <c r="L4" s="10">
-        <f>(((1.6E-19)*(K4*0.0000001)^2)*I4)/(2*300*0.00008618*1.6E-19)</f>
-        <v>3.9780112507355907E-2</v>
-      </c>
-      <c r="M4" s="10">
-        <f t="shared" si="3"/>
-        <v>1.3194690373548492E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.38873703940682902</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.28062319019862703</v>
-      </c>
-      <c r="E5" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F5" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="H3" s="14">
         <f t="shared" si="0"/>
         <v>5.7629999999999999E-3</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I5" si="1">(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
+        <v>1098385197.5707982</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J5" si="2">(((H3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D3+0.3)*0.000086173*300)))) * EXP(-(D3+0.3) / (4 * 0.000086173 * 300)))</f>
+        <v>610190494.18914187</v>
+      </c>
+      <c r="K3" s="15">
+        <v>4</v>
+      </c>
+      <c r="L3" s="15">
+        <f>(((1.6E-19)*(K3*0.0000001)^2)*I3)/(2*300*0.00008618*1.6E-19)</f>
+        <v>3.3987319488537103E-3</v>
+      </c>
+      <c r="M3" s="15">
+        <f t="shared" ref="M3:M5" si="3">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
+        <v>1.8881116862045073E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.221532083722151</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.31357201209075902</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.15752200000000002</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" si="0"/>
+        <v>9.6050000000000007E-3</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="1"/>
+        <v>188073804674.06213</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="2"/>
+        <v>264725746.02960527</v>
+      </c>
+      <c r="K4" s="15">
+        <v>4</v>
+      </c>
+      <c r="L4" s="15">
+        <f>(((1.6E-19)*(K4*0.0000001)^2)*I4)/(2*300*0.00008618*1.6E-19)</f>
+        <v>0.58195653956544302</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" si="3"/>
+        <v>8.1914054623533734E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.39363829187570698</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.285376931681323</v>
+      </c>
+      <c r="E5" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>5.7629999999999999E-3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>5.7629999999999999E-3</v>
+      </c>
+      <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>43483479.964981034</v>
-      </c>
-      <c r="J5" s="9">
+        <v>41323780.785302818</v>
+      </c>
+      <c r="J5" s="14">
         <f t="shared" si="2"/>
-        <v>134729829.14576483</v>
-      </c>
-      <c r="K5" s="10">
+        <v>128152839.49270904</v>
+      </c>
+      <c r="K5" s="15">
         <v>4</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="15">
         <f>(((1.6E-19)*(K5*0.0000001)^2)*I5)/(2*300*0.00008618*1.6E-19)</f>
-        <v>1.3455087789891241E-4</v>
-      </c>
-      <c r="M5" s="10">
+        <v>1.2786812341704278E-4</v>
+      </c>
+      <c r="M5" s="15">
         <f t="shared" si="3"/>
-        <v>4.1689434252576709E-4</v>
+        <v>3.9654317163366286E-4</v>
       </c>
     </row>
   </sheetData>
@@ -2742,7 +2515,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2755,237 +2528,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
-        <v>0.19637523212479799</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.31665724443216597</v>
-      </c>
-      <c r="E2" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F2" s="8">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C2" s="26">
+        <v>0.312452813521989</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0.31975021939648701</v>
+      </c>
+      <c r="E2" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F2" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="26">
         <f>E2*1.921</f>
-        <v>7.6840000000000007E-3</v>
-      </c>
-      <c r="H2" s="9">
+        <v>5.7629999999999999E-3</v>
+      </c>
+      <c r="H2" s="26">
         <f>F2*1.921</f>
-        <v>1.3447000000000001E-2</v>
-      </c>
-      <c r="I2" s="9">
+        <v>5.7629999999999999E-3</v>
+      </c>
+      <c r="I2" s="26">
         <f>(((G2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C2+0.3)*0.000086173*300)))) * EXP(-(C2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>585073713.43678403</v>
-      </c>
-      <c r="J2" s="9">
+        <v>96426317.273572728</v>
+      </c>
+      <c r="J2" s="26">
         <f>(((H2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D2+0.3)*0.000086173*300)))) * EXP(-(D2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>502349122.88058424</v>
-      </c>
-      <c r="K2" s="10">
+        <v>89325545.85946615</v>
+      </c>
+      <c r="K2" s="27">
         <v>4</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="27">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*I2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>1.8103928628043127E-3</v>
-      </c>
-      <c r="M2" s="10">
+        <v>2.9837183344495305E-4</v>
+      </c>
+      <c r="M2" s="27">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*J2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>1.5544182652760393E-3</v>
-      </c>
-      <c r="N2" s="8"/>
+        <v>2.7639992530197608E-4</v>
+      </c>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
-        <v>0.38215175535287998</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.210046312302265</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="C3" s="26">
+        <v>0.38247959114353097</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0.21009438673703901</v>
+      </c>
+      <c r="E3" s="25">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="F3" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G3" s="26">
         <f t="shared" ref="G3:G5" si="0">E3*1.921</f>
-        <v>2.6894000000000001E-2</v>
-      </c>
-      <c r="H3" s="9">
+        <v>1.1526E-2</v>
+      </c>
+      <c r="H3" s="26">
         <f t="shared" ref="H3:H5" si="1">F3*1.921</f>
-        <v>1.1526E-2</v>
-      </c>
-      <c r="I3" s="9">
+        <v>1.5368000000000001E-2</v>
+      </c>
+      <c r="I3" s="26">
         <f t="shared" ref="I3:I5" si="2">(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>1014100873.6237953</v>
-      </c>
-      <c r="J3" s="9">
+        <v>185629244.5969305</v>
+      </c>
+      <c r="J3" s="26">
         <f t="shared" ref="J3:J5" si="3">(((H3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D3+0.3)*0.000086173*300)))) * EXP(-(D3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>1137829314.9359951</v>
-      </c>
-      <c r="K3" s="10">
+        <v>2021772202.6881099</v>
+      </c>
+      <c r="K3" s="27">
         <v>4</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="27">
         <f t="shared" ref="L3" si="4">(((1.6E-19)*(K3*0.0000001)^2)*I3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>3.1379310702368528E-3</v>
-      </c>
-      <c r="M3" s="10">
+        <v>5.7439234036336484E-4</v>
+      </c>
+      <c r="M3" s="27">
         <f t="shared" ref="M3:M5" si="5">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>3.520783832090956E-3</v>
-      </c>
-      <c r="N3" s="8"/>
+        <v>6.2559672087510142E-3</v>
+      </c>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9">
-        <v>0.448536818522912</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.29705663170115998</v>
-      </c>
-      <c r="E4" s="8">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="C4" s="26">
+        <v>0.45161354186043001</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.30239179587576298</v>
+      </c>
+      <c r="E4" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="25">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G4" s="26">
         <f t="shared" si="0"/>
-        <v>1.7288999999999999E-2</v>
-      </c>
-      <c r="H4" s="9">
+        <v>9.6050000000000007E-3</v>
+      </c>
+      <c r="H4" s="26">
         <f t="shared" si="1"/>
-        <v>8.4524000000000002E-2</v>
-      </c>
-      <c r="I4" s="9">
+        <v>8.2602999999999996E-2</v>
+      </c>
+      <c r="I4" s="26">
         <f t="shared" si="2"/>
-        <v>210541615.45625076</v>
-      </c>
-      <c r="J4" s="9">
+        <v>62947792.840951331</v>
+      </c>
+      <c r="J4" s="26">
         <f t="shared" si="3"/>
-        <v>24380822071.799786</v>
-      </c>
-      <c r="K4" s="10">
+        <v>22016148831.748871</v>
+      </c>
+      <c r="K4" s="27">
         <v>4</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="27">
         <f t="shared" ref="L4" si="6">(((1.6E-19)*(K4*0.0000001)^2)*I4)/(2*300*0.00008618*1.6E-19)</f>
-        <v>6.5147865848611637E-4</v>
-      </c>
-      <c r="M4" s="10">
+        <v>1.9477927698909663E-4</v>
+      </c>
+      <c r="M4" s="27">
         <f t="shared" si="5"/>
-        <v>7.5441547371547235E-2</v>
-      </c>
-      <c r="N4" s="8"/>
+        <v>6.8124541909952388E-2</v>
+      </c>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9">
-        <v>0.541882238379226</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.29573099286705801</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="C5" s="26">
+        <v>0.54316031892387195</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.29667946313967603</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>3.6498999999999997E-2</v>
-      </c>
-      <c r="H5" s="9">
+        <v>4.6103999999999999E-2</v>
+      </c>
+      <c r="H5" s="26">
         <f t="shared" si="1"/>
-        <v>3.6498999999999997E-2</v>
-      </c>
-      <c r="I5" s="9">
+        <v>3.4577999999999998E-2</v>
+      </c>
+      <c r="I5" s="26">
         <f t="shared" si="2"/>
-        <v>358761657.43967986</v>
-      </c>
-      <c r="J5" s="9">
+        <v>564968422.01366973</v>
+      </c>
+      <c r="J5" s="26">
         <f t="shared" si="3"/>
-        <v>4609993567.5553026</v>
-      </c>
-      <c r="K5" s="10">
+        <v>4096465152.3556051</v>
+      </c>
+      <c r="K5" s="27">
         <v>4</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="27">
         <f t="shared" ref="L5" si="7">(((1.6E-19)*(K5*0.0000001)^2)*I5)/(2*300*0.00008618*1.6E-19)</f>
-        <v>1.1101157497940117E-3</v>
-      </c>
-      <c r="M5" s="10">
+        <v>1.748181084594011E-3</v>
+      </c>
+      <c r="M5" s="27">
         <f t="shared" si="5"/>
-        <v>1.4264697354545681E-2</v>
-      </c>
-      <c r="N5" s="8"/>
+        <v>1.2675687018969919E-2</v>
+      </c>
+      <c r="N5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2996,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B9FF55-0238-0D46-837F-96A642BB1C17}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3011,236 +2784,243 @@
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="C2" s="26">
         <v>5.2973958406977804E-3</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="26">
         <v>-2.17801562637286E-2</v>
       </c>
-      <c r="E2" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="26">
+        <v>2E-3</v>
+      </c>
+      <c r="F2" s="26">
         <v>2.3E-2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="26">
         <f>E2*1.921</f>
-        <v>7.6840000000000007E-3</v>
-      </c>
-      <c r="H2" s="9">
+        <v>3.8420000000000004E-3</v>
+      </c>
+      <c r="H2" s="26">
         <f>F2*1.921</f>
         <v>4.4183E-2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="26">
         <f>(((G2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C2+0.3)*0.000086173*300)))) * EXP(-(C2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>4734223730.5928631</v>
-      </c>
-      <c r="J2" s="9">
+        <v>1183555932.6482158</v>
+      </c>
+      <c r="J2" s="26">
         <f>(((H2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D2+0.3)*0.000086173*300)))) * EXP(-(D2+0.3) / (4 * 0.000086173 * 300)))</f>
         <v>213045869588.71884</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="27">
         <v>4</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="27">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*I2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>1.4649102593309697E-2</v>
-      </c>
-      <c r="M2" s="10">
+        <v>3.6622756483274243E-3</v>
+      </c>
+      <c r="M2" s="27">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*J2)/(2*300*0.00008618*1.6E-19)</f>
         <v>0.65922756892927592</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="9">
-        <v>9.7090732488098602E-2</v>
-      </c>
-      <c r="D3" s="9">
-        <v>8.6833999999999995E-2</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="B3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0.10025054319424</v>
+      </c>
+      <c r="D3" s="26">
+        <v>9.6006349081123099E-2</v>
+      </c>
+      <c r="E3" s="25">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="25">
         <v>0</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="26">
         <f t="shared" ref="G3:G5" si="0">E3*1.921</f>
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="26">
         <f t="shared" ref="H3:H5" si="1">F3*1.921</f>
         <v>0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="26">
         <f t="shared" ref="I3:I5" si="2">(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="26">
         <f t="shared" ref="J3:J5" si="3">(((H3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D3+0.3)*0.000086173*300)))) * EXP(-(D3+0.3) / (4 * 0.000086173 * 300)))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="27">
         <v>4</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="27">
         <f t="shared" ref="L3" si="4">(((1.6E-19)*(K3*0.0000001)^2)*I3)/(2*300*0.00008618*1.6E-19)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="27">
         <f t="shared" ref="M3:M5" si="5">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9">
-        <v>0.13114300000000001</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.13478599999999999</v>
-      </c>
-      <c r="E4" s="9">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="C4" s="26">
+        <v>0.13571110865675701</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.13749478629343301</v>
+      </c>
+      <c r="E4" s="26">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F4" s="25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G4" s="26">
         <f t="shared" si="0"/>
-        <v>4.9945999999999997E-2</v>
-      </c>
-      <c r="H4" s="9">
+        <v>0.186337</v>
+      </c>
+      <c r="H4" s="26">
         <f t="shared" si="1"/>
-        <v>2.6894000000000001E-2</v>
-      </c>
-      <c r="I4" s="9">
+        <v>0.132549</v>
+      </c>
+      <c r="I4" s="26">
         <f t="shared" si="2"/>
-        <v>49842068304.007248</v>
-      </c>
-      <c r="J4" s="9">
+        <v>660265941958.91101</v>
+      </c>
+      <c r="J4" s="26">
         <f t="shared" si="3"/>
-        <v>13892433919.05472</v>
-      </c>
-      <c r="K4" s="10">
+        <v>327714259638.10406</v>
+      </c>
+      <c r="K4" s="27">
         <v>4</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="27">
         <f t="shared" ref="L4" si="6">(((1.6E-19)*(K4*0.0000001)^2)*I4)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0.15422624987702399</v>
-      </c>
-      <c r="M4" s="10">
+        <v>2.0430600818717748</v>
+      </c>
+      <c r="M4" s="27">
         <f t="shared" si="5"/>
-        <v>4.2987340973326266E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+        <v>1.0140458254447402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9">
-        <v>0.183473</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.13188</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="C5" s="26">
+        <v>0.18484893073893899</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.18527327910723701</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
+        <v>1.9210000000000002E-3</v>
+      </c>
+      <c r="H5" s="26">
         <f t="shared" si="1"/>
-        <v>2.1131E-2</v>
-      </c>
-      <c r="I5" s="9">
+        <v>1.9210000000000001E-2</v>
+      </c>
+      <c r="I5" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
+        <v>41361945.326706275</v>
+      </c>
+      <c r="J5" s="26">
         <f t="shared" si="3"/>
-        <v>8850515723.7739544</v>
-      </c>
-      <c r="K5" s="10">
+        <v>4117454385.7558193</v>
+      </c>
+      <c r="K5" s="27">
         <v>4</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="27">
         <f t="shared" ref="L5" si="7">(((1.6E-19)*(K5*0.0000001)^2)*I5)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
+        <v>1.2798621590997527E-4</v>
+      </c>
+      <c r="M5" s="27">
         <f t="shared" si="5"/>
-        <v>2.7386139781152473E-2</v>
+        <v>1.2740633977739051E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3250,181 +3030,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE5031B-F0CE-104F-8605-A2754B2063CA}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.16501348999416099</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.116704497141059</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="A2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0.16760655268264499</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0.122869803277505</v>
+      </c>
+      <c r="E2" s="26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F2" s="26">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G2" s="26">
         <f>E2*1.921</f>
-        <v>9.6050000000000007E-3</v>
-      </c>
-      <c r="H2" s="9">
+        <v>3.4577999999999998E-2</v>
+      </c>
+      <c r="H2" s="26">
         <f>F2*1.921</f>
-        <v>9.7971000000000003E-2</v>
-      </c>
-      <c r="I2" s="9">
+        <v>5.3788000000000002E-2</v>
+      </c>
+      <c r="I2" s="26">
         <f>(((G2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C2+0.3)*0.000086173*300)))) * EXP(-(C2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>1279136572.3291197</v>
-      </c>
-      <c r="J2" s="9">
+        <v>16122187716.117405</v>
+      </c>
+      <c r="J2" s="26">
         <f>(((H2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D2+0.3)*0.000086173*300)))) * EXP(-(D2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>224298084831.04053</v>
-      </c>
-      <c r="K2" s="10">
+        <v>63229360100.729019</v>
+      </c>
+      <c r="K2" s="27">
         <v>4</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="27">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*I2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>3.9580307026506351E-3</v>
-      </c>
-      <c r="M2" s="10">
+        <v>4.9886865370518757E-2</v>
+      </c>
+      <c r="M2" s="27">
         <f>(((1.6E-19)*(K2*0.0000001)^2)*J2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0.69404528453946135</v>
+        <v>0.19565053021034731</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5.5502805009811501E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.5250247815993697E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="A3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="26">
+        <v>6.2329523652750803E-2</v>
+      </c>
+      <c r="D3" s="26">
+        <v>4.76850082670554E-2</v>
+      </c>
+      <c r="E3" s="26">
+        <v>2E-3</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2E-3</v>
+      </c>
+      <c r="G3" s="26">
         <f t="shared" ref="G3:H3" si="0">E3*1.921</f>
-        <v>2.3052E-2</v>
-      </c>
-      <c r="H3" s="9">
+        <v>3.8420000000000004E-3</v>
+      </c>
+      <c r="H3" s="26">
         <f t="shared" si="0"/>
-        <v>1.1526E-2</v>
-      </c>
-      <c r="I3" s="9">
+        <v>3.8420000000000004E-3</v>
+      </c>
+      <c r="I3" s="26">
         <f t="shared" ref="I3:J3" si="1">(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>24298365994.723392</v>
-      </c>
-      <c r="J3" s="9">
+        <v>625854178.11473703</v>
+      </c>
+      <c r="J3" s="26">
         <f t="shared" si="1"/>
-        <v>6806605897.6982508</v>
-      </c>
-      <c r="K3" s="10">
+        <v>736099512.31966341</v>
+      </c>
+      <c r="K3" s="27">
         <v>4</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="27">
         <f t="shared" ref="L3" si="2">(((1.6E-19)*(K3*0.0000001)^2)*I3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>7.5186403634945109E-2</v>
-      </c>
-      <c r="M3" s="10">
+        <v>1.936579803867059E-3</v>
+      </c>
+      <c r="M3" s="27">
         <f t="shared" ref="M3" si="3">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>2.106167215192465E-2</v>
+        <v>2.2777118041917323E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3432,773 +3212,296 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0609986B-B924-8B42-AFF2-8FEC7736BCB5}">
-  <dimension ref="A1:M77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388CD6A6-D69D-884A-994F-2EEE7643A3C8}">
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>7.60847E-3</v>
+      </c>
+      <c r="F2">
+        <v>2.9973630000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.879105E-2</v>
+      </c>
+      <c r="H2">
+        <f>(E2+F2)/2</f>
+        <v>1.879105E-2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="R2">
+        <f>(O2+P2)/2</f>
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.19636999999999999</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.22783</v>
-      </c>
-      <c r="E2" s="6">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="S2" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>8.4149800000000007E-3</v>
+      </c>
+      <c r="F3">
+        <v>7.60847E-3</v>
+      </c>
+      <c r="G3">
+        <v>8.0117250000000008E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="0">(E3+F3)/2</f>
+        <v>8.0117250000000008E-3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="M3" s="1"/>
+      <c r="R3">
+        <f t="shared" ref="R3:R5" si="1">(O3+P3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1.0244090000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.5772659999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.8008375E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.8008375E-2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1.7246270000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.0244090000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.3745180000000001E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.3745180000000001E-2</v>
+      </c>
+      <c r="I5" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G2" s="6">
-        <f>E2*1.921</f>
-        <v>0.184416</v>
-      </c>
-      <c r="H2" s="6">
-        <f>F2*1.921</f>
-        <v>5.7629999999999999E-3</v>
-      </c>
-      <c r="I2" s="6">
-        <f>(((G2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C2+0.3)*0.000086173*300)))) * EXP(-(C2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>337021286937.31702</v>
-      </c>
-      <c r="J2" s="6">
-        <f>(((H2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D2+0.3)*0.000086173*300)))) * EXP(-(D2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>235443339.30955076</v>
-      </c>
-      <c r="K2" s="7">
-        <v>3.2050000000000001</v>
-      </c>
-      <c r="L2" s="7">
-        <f>(((1.6E-19)*(K2*0.0000001)^2)*I2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0.66950782953359111</v>
-      </c>
-      <c r="M2" s="7">
-        <f>(((1.6E-19)*(K2*0.0000001)^2)*J2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>4.6771870261297821E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.21942900000000001</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.235154</v>
-      </c>
-      <c r="E3" s="6">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G3" s="6">
-        <f>E3*1.921</f>
-        <v>0.113339</v>
-      </c>
-      <c r="H3" s="6">
-        <f>F3*1.921</f>
-        <v>7.6840000000000007E-3</v>
-      </c>
-      <c r="I3" s="6">
-        <f>(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>99566821823.976913</v>
-      </c>
-      <c r="J3" s="6">
-        <f>(((H3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D3+0.3)*0.000086173*300)))) * EXP(-(D3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>387268313.54840028</v>
-      </c>
-      <c r="K3" s="7">
-        <v>3.1429999999999998</v>
-      </c>
-      <c r="L3" s="7">
-        <f>(((1.6E-19)*(K3*0.0000001)^2)*I3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0.19021539635651011</v>
-      </c>
-      <c r="M3" s="7">
-        <f t="shared" ref="M3" si="0">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>7.3984882120830034E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K5" s="2"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>3.2782039999999998E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.5927140000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.935459E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2.935459E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="S6" s="9">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>5.6987719999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>3.2782039999999998E-2</v>
+      </c>
+      <c r="G7">
+        <v>4.4884880000000002E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>4.4884880000000002E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="M7" s="1"/>
+      <c r="S7" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-1.30988712E-3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>-1.6220942200000001E-5</v>
+      </c>
+      <c r="G8">
+        <v>6.6305403110000001E-4</v>
+      </c>
+      <c r="H8" s="11">
+        <f>(ABS(E8)+ABS(F8))/2</f>
+        <v>6.6305403110000001E-4</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11">
+        <v>6.5933249399999995E-5</v>
+      </c>
+      <c r="F9" s="11">
+        <v>-1.30988712E-3</v>
+      </c>
+      <c r="G9">
+        <v>6.879101847E-4</v>
+      </c>
+      <c r="H9" s="11">
+        <f>(ABS(E9)+ABS(F9))/2</f>
+        <v>6.879101847E-4</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I19" s="8"/>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21D25C2-5F11-304B-9F42-43E430F25C5C}">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.35893399999999998</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.17055600000000001</v>
-      </c>
-      <c r="E2" s="6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G2" s="6">
-        <f>E2*1.921</f>
-        <v>1.5368000000000001E-2</v>
-      </c>
-      <c r="H2" s="6">
-        <f>F2*1.921</f>
-        <v>4.4183E-2</v>
-      </c>
-      <c r="I2" s="6">
-        <f>(((G2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C2+0.3)*0.000086173*300)))) * EXP(-(C2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>421730740.66087532</v>
-      </c>
-      <c r="J2" s="6">
-        <f>(((H2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D2+0.3)*0.000086173*300)))) * EXP(-(D2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>25502460903.902073</v>
-      </c>
-      <c r="K2" s="7">
-        <v>3.1720000000000002</v>
-      </c>
-      <c r="L2" s="7">
-        <f>(((1.6E-19)*(K2*0.0000001)^2)*I2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>8.2062336051319182E-4</v>
-      </c>
-      <c r="M2" s="7">
-        <f>(((1.6E-19)*(K2*0.0000001)^2)*J2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>4.9623878817847647E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.26349600000000001</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.16817299999999999</v>
-      </c>
-      <c r="E3" s="5">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>6.3E-2</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G5" si="0">E3*1.921</f>
-        <v>1.1526E-2</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H5" si="1">F3*1.921</f>
-        <v>0.12102300000000001</v>
-      </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I5" si="2">(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>645590054.03778017</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J5" si="3">(((H3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D3+0.3)*0.000086173*300)))) * EXP(-(D3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>196299047025.45551</v>
-      </c>
-      <c r="K3" s="7">
-        <v>3.02</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3" si="4">(((1.6E-19)*(K3*0.0000001)^2)*I3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>1.1387095863011852E-3</v>
-      </c>
-      <c r="M3" s="7">
-        <f t="shared" ref="M3:M5" si="5">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0.34623768633305557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.24321599999999999</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.157606</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7288999999999999E-2</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7288999999999999E-2</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="2"/>
-        <v>1799994057.6486354</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" si="3"/>
-        <v>4488064152.4453716</v>
-      </c>
-      <c r="K4" s="7">
-        <v>3.5339999999999998</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ref="L4" si="6">(((1.6E-19)*(K4*0.0000001)^2)*I4)/(2*300*0.00008618*1.6E-19)</f>
-        <v>4.3475683811106201E-3</v>
-      </c>
-      <c r="M4" s="7">
-        <f t="shared" si="5"/>
-        <v>1.0840127898564634E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.28960200000000003</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.161103</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="1"/>
-        <v>4.9945999999999997E-2</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="3"/>
-        <v>36072878919.738487</v>
-      </c>
-      <c r="K5" s="7">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" ref="L5" si="7">(((1.6E-19)*(K5*0.0000001)^2)*I5)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="5"/>
-        <v>6.9838678596366957E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B3670E-60CB-764B-A11D-F540909ACF57}">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.30725599999999997</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.171071</v>
-      </c>
-      <c r="E2" s="5">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="G2" s="6">
-        <f>E2*1.921</f>
-        <v>1.7288999999999999E-2</v>
-      </c>
-      <c r="H2" s="6">
-        <f>F2*1.921</f>
-        <v>7.8761000000000012E-2</v>
-      </c>
-      <c r="I2" s="6">
-        <f>(((G2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C2+0.3)*0.000086173*300)))) * EXP(-(C2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>916461531.33027732</v>
-      </c>
-      <c r="J2" s="6">
-        <f>(((H2^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D2+0.3)*0.000086173*300)))) * EXP(-(D2+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>80592326298.193008</v>
-      </c>
-      <c r="K2" s="7">
-        <v>3.3220000000000001</v>
-      </c>
-      <c r="L2" s="7">
-        <f>(((1.6E-19)*(K2*0.0000001)^2)*I2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>1.9559410261307799E-3</v>
-      </c>
-      <c r="M2" s="7">
-        <f>(((1.6E-19)*(K2*0.0000001)^2)*J2)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0.17200267770011363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.28974499999999997</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.17393900000000001</v>
-      </c>
-      <c r="E3" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G6" si="0">E3*1.921</f>
-        <v>9.6050000000000007E-3</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H6" si="1">F3*1.921</f>
-        <v>9.0287000000000006E-2</v>
-      </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I6" si="2">(((G3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((C3+0.3)*0.000086173*300)))) * EXP(-(C3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>339990083.71675861</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J6" si="3">(((H3^2) / ((4.135667696E-15))) * (1/(SQRT(PI()*((D3+0.3)*0.000086173*300)))) * EXP(-(D3+0.3) / (4 * 0.000086173 * 300)))</f>
-        <v>102697184788.847</v>
-      </c>
-      <c r="K3" s="7">
-        <v>3.37</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3:L6" si="4">(((1.6E-19)*(K3*0.0000001)^2)*I3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>7.4673810276221393E-4</v>
-      </c>
-      <c r="M3" s="7">
-        <f t="shared" ref="M3:M6" si="5">(((1.6E-19)*(K3*0.0000001)^2)*J3)/(2*300*0.00008618*1.6E-19)</f>
-        <v>0.22555922834541201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.214228</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.16192000000000001</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>7.6840000000000006E-2</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="1"/>
-        <v>5.7629999999999999E-3</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="2"/>
-        <v>48368115079.656601</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" si="3"/>
-        <v>476059181.92651922</v>
-      </c>
-      <c r="K4" s="7">
-        <v>3.2250000000000001</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" si="4"/>
-        <v>9.7288355167547247E-2</v>
-      </c>
-      <c r="M4" s="7">
-        <f t="shared" si="5"/>
-        <v>9.5755260869198253E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.310749</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.156135</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>5.7629999999999999E-3</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="1"/>
-        <v>3.0736000000000003E-2</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="2"/>
-        <v>98164903.653881505</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="3"/>
-        <v>14410900205.514866</v>
-      </c>
-      <c r="K5" s="7">
-        <v>3.177</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="4"/>
-        <v>1.9161651365976791E-4</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="5"/>
-        <v>2.8129874866641355E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.32917099999999999</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.225859</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5368000000000001E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="1"/>
-        <v>0.18825800000000001</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="2"/>
-        <v>575534615.95532954</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="3"/>
-        <v>256558435096.70178</v>
-      </c>
-      <c r="K6" s="7">
-        <v>3.17</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="4"/>
-        <v>1.1184903307560744E-3</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.49859403930595769</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>